--- a/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
@@ -1,133 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\mapeamento separado\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0ACF7-1C18-4548-A488-4CA032431343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="Drop-down Lists" sheetId="2" r:id="rId2"/>
+    <sheet name="Mapping" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Drop-down Lists" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="existingRecordPolicy">'Drop-down Lists'!$C$1:$C$13</definedName>
-    <definedName name="ignore_stop">'Drop-down Lists'!$B$1:$B$2</definedName>
-    <definedName name="importer_type">'Drop-down Lists'!$E$1:$E$3</definedName>
-    <definedName name="inputTypes">'Drop-down Lists'!$E$1:$E$4</definedName>
-    <definedName name="Ruletypes">'Drop-down Lists'!$A$1:$A$4</definedName>
-    <definedName name="RuletypesWRules">'Drop-down Lists'!$A$1:$A$6</definedName>
-    <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
-    <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
+    <definedName function="false" hidden="false" name="existingRecordPolicy" vbProcedure="false">'Drop-down Lists'!$C$1:$C$13</definedName>
+    <definedName function="false" hidden="false" name="ignore_stop" vbProcedure="false">'Drop-down Lists'!$B$1:$B$2</definedName>
+    <definedName function="false" hidden="false" name="importer_type" vbProcedure="false">'Drop-down Lists'!$E$1:$E$3</definedName>
+    <definedName function="false" hidden="false" name="inputTypes" vbProcedure="false">'Drop-down Lists'!$E$1:$E$4</definedName>
+    <definedName function="false" hidden="false" name="Ruletypes" vbProcedure="false">'Drop-down Lists'!$A$1:$A$4</definedName>
+    <definedName function="false" hidden="false" name="RuletypesWRules" vbProcedure="false">'Drop-down Lists'!$A$1:$A$6</definedName>
+    <definedName function="false" hidden="false" name="table" vbProcedure="false">'Drop-down Lists'!$F$1:$F$16</definedName>
+    <definedName function="false" hidden="false" name="YES_NO" vbProcedure="false">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
-  <si>
-    <t>Rule type</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>CA table.element</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Refinery</t>
-  </si>
-  <si>
-    <t>Refinery parameters</t>
-  </si>
-  <si>
-    <t>Original values</t>
-  </si>
-  <si>
-    <t>Replacement values</t>
-  </si>
-  <si>
-    <t>Source description</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>Mapping</t>
-  </si>
-  <si>
-    <t>ca_objects.idno</t>
-  </si>
-  <si>
-    <t>ca_objects.preferred_labels</t>
-  </si>
-  <si>
-    <t>ca_objects.objectProductionDate</t>
-  </si>
-  <si>
-    <t>ca_places</t>
-  </si>
-  <si>
-    <t>placeSplitter</t>
-  </si>
-  <si>
-    <t>{
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+  <si>
+    <t xml:space="preserve">Rule type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA table.element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refinery parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacement values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.objectProductionDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placeSplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
     "relationshipType": "created",
     "placeType": "city"
 }</t>
   </si>
   <si>
-    <t>Não encontrei o elemento do local de criação. Revisar.</t>
-  </si>
-  <si>
-    <t>ca_objects.materiaux_tech_c.materiaux</t>
-  </si>
-  <si>
-    <t>listItemSplitter</t>
-  </si>
-  <si>
-    <t>{"list": "dmf_lexmateriaux"}</t>
-  </si>
-  <si>
-    <t>ca_objects.work_dimensions</t>
-  </si>
-  <si>
-    <t>ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
-  </si>
-  <si>
-    <t>aquis</t>
-  </si>
-  <si>
-    <t>ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
-  </si>
-  <si>
-    <t>ca_storage_locations</t>
-  </si>
-  <si>
-    <t>storageLocationSplitter</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">Não encontrei o elemento do local de criação. Revisar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.materiaux_tech_c.materiaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.work_dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_storage_locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storageLocationSplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
     "relationshipType": "related"}</t>
   </si>
   <si>
-    <t>ca_objects.constatEtat.etat_global</t>
+    <t xml:space="preserve">ca_objects.constatEtat.etat_global</t>
   </si>
   <si>
     <r>
@@ -150,277 +144,352 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Ruim
+      <t xml:space="preserve">Ruim
 "?"</t>
     </r>
   </si>
   <si>
-    <t>bon
+    <t xml:space="preserve">bon
 a_traiter
 mauvais
 etatglobal_nonrenseigne</t>
   </si>
   <si>
-    <t>ca_entities</t>
-  </si>
-  <si>
-    <t>entitySplitter</t>
-  </si>
-  <si>
-    <t>{
+    <t xml:space="preserve">ca_entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+   "applyRegularExpressions": [
+ {
+ "match": "(^[ A-Za-z,ãÃáÁàÀêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚùÙûÛçÇºª\\']+).+", 
+"replaceWith": "\\1" 
+}
+]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entitySplitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
     "relationshipType": "creation_auteur",
-    "entityType": "person"
+    "entityType": "ind"
 }</t>
   </si>
   <si>
-    <t>ca_objects.marquage_existant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"suffix": " - Localização da Assinatura"} </t>
-  </si>
-  <si>
-    <t>ca_objects.dimensions.dimensions_length</t>
-  </si>
-  <si>
-    <t>dim1</t>
-  </si>
-  <si>
-    <t>ca_objects.dimensions.dimensions_height</t>
-  </si>
-  <si>
-    <t>Setting name</t>
-  </si>
-  <si>
-    <t>Setting value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Human readable name of the mapping</t>
-  </si>
-  <si>
-    <t>Arbitrary text</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Alphanumeric code of the mapping</t>
-  </si>
-  <si>
-    <t>Arbitrary, no special characters or spaces</t>
-  </si>
-  <si>
-    <t>inputFormats</t>
-  </si>
-  <si>
-    <t>XLSX</t>
-  </si>
-  <si>
-    <t>Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
-  </si>
-  <si>
-    <t>file type</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>ca_objects</t>
-  </si>
-  <si>
-    <t>Sets the table for the imported data</t>
-  </si>
-  <si>
-    <t>Corresponds to CollectiveAccess Basic Tables</t>
-  </si>
-  <si>
-    <t>existingRecordPolicy</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Determines how existing records are checked for and handled for the mapping</t>
-  </si>
-  <si>
-    <t>errorPolicy</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Set the target record's type_id</t>
-  </si>
-  <si>
-    <t>numInitialRowsToSkip</t>
-  </si>
-  <si>
-    <t>The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
-  </si>
-  <si>
-    <t>If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ca_object_lots</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>skip_on_idno</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>XLS</t>
-  </si>
-  <si>
-    <t>merge_on_idno</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>Rule</t>
-  </si>
-  <si>
-    <t>merge_on_idno_with_replace</t>
-  </si>
-  <si>
-    <t>FMPDSO</t>
-  </si>
-  <si>
-    <t>ca_collections</t>
-  </si>
-  <si>
-    <t>overwrite_on_idno</t>
-  </si>
-  <si>
-    <t>Inmagic</t>
-  </si>
-  <si>
-    <t>ca_occurrences</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>skip_on_preferred_labels</t>
-  </si>
-  <si>
-    <t>MARC</t>
-  </si>
-  <si>
-    <t>ca_loans</t>
-  </si>
-  <si>
-    <t>merge_on_preferred_labels</t>
-  </si>
-  <si>
-    <t>CollectiveAccess</t>
-  </si>
-  <si>
-    <t>merge_on_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t>FMPXML</t>
-  </si>
-  <si>
-    <t>ca_movements</t>
-  </si>
-  <si>
-    <t>overwrite_on_preferred_labels</t>
-  </si>
-  <si>
-    <t>TEI</t>
-  </si>
-  <si>
-    <t>ca_object_events</t>
-  </si>
-  <si>
-    <t>skip_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t>WorldCat</t>
-  </si>
-  <si>
-    <t>ca_object_lot_events</t>
-  </si>
-  <si>
-    <t>merge_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t>pastperfectxml</t>
-  </si>
-  <si>
-    <t>ca_sets</t>
-  </si>
-  <si>
-    <t>merge_on_idno_and_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t>TabDelimited</t>
-  </si>
-  <si>
-    <t>ca_set_items</t>
-  </si>
-  <si>
-    <t>overwrite_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t>CSVDelimited</t>
-  </si>
-  <si>
-    <t>ca_object_representations</t>
-  </si>
-  <si>
-    <t>ULAN</t>
-  </si>
-  <si>
-    <t>RDF</t>
-  </si>
-  <si>
-    <t>ca_lists</t>
-  </si>
-  <si>
-    <t>ca_list_items</t>
-  </si>
-  <si>
-    <t>Importação Desenho Arquitetonico MDJVI</t>
-  </si>
-  <si>
-    <t>Mapeamento_Desenho_Arquitetonico</t>
-  </si>
-  <si>
-    <t>artvis_desarq</t>
+    <t xml:space="preserve">ca_objects.inscription_c.inscription_info_c.inscription_emplacement_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c
+cd
+ce
+cid
+cie
+csd
+cse
+ebc
+ebd
+ebe
+ecc
+ecd
+ece
+vc
+vcd
+vce
+vcid
+Vcie
+vcsd
+vcse
+vebc
+vebd
+vebe
+vecc
+vecd
+vece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centro
+centro à direita
+centro à esquerda
+canto inferior direito
+canto inferior esquerdo
+canto superior direito
+canto superior esquerdo
+embaixo no centro
+embaixo à direita
+embaixo à esquerda
+em cima no centro
+em cima à direita
+em cima à esquerda
+verso centro
+verso centro direita
+verso centro à esquerda
+verso canto inferior direito
+verso canto inferior esquerdo
+verso canto superior direito
+verso canto superior esquerdo
+verso embaixo no centro
+verso embaixo à direita
+verso embaixo à esquerda
+verso em cima no centro
+verso em cima à direita
+verso em cima à esquerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.inscription_c.inscription_type_c.inscription_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.dimensions.dimensions_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects.dimensions.dimensions_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importação Desenho Arquitetonico MDJVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human readable name of the mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbitrary text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapeamento_Desenho_Arquitetonico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphanumeric code of the mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbitrary, no special characters or spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inputFormats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets the table for the imported data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponds to CollectiveAccess Basic Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existingRecordPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determines how existing records are checked for and handled for the mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errorPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artvis_desarq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the target record's type_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numInitialRowsToSkip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_lots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip_on_idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno_with_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMPDSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overwrite_on_idno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inmagic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_occurrences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip_on_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollectiveAccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMPXML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_movements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overwrite_on_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorldCat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_lot_events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pastperfectxml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_on_idno_and_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TabDelimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_set_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overwrite_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSVDelimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_object_representations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_list_items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -429,7 +498,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -443,7 +527,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -458,7 +542,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -474,7 +558,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -482,381 +566,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="19:20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.5"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="59.625"/>
-    <col min="5" max="5" width="31.125"/>
-    <col min="6" max="6" width="40.5"/>
-    <col min="7" max="7" width="22"/>
-    <col min="8" max="8" width="20.75"/>
-    <col min="9" max="9" width="25.625"/>
-    <col min="10" max="10" width="43.125"/>
-    <col min="11" max="11" width="74.25"/>
-    <col min="12" max="26" width="12"/>
-    <col min="27" max="1025" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="74.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,11 +734,11 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -937,11 +765,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -969,11 +797,11 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
@@ -1001,11 +829,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
@@ -1033,11 +861,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1066,11 +894,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1100,11 +928,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1140,24 +968,20 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
@@ -1178,11 +1002,11 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
@@ -1209,11 +1033,11 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2"/>
@@ -1240,15 +1064,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="C12" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -1274,18 +1098,18 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
+      <c r="C13" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1310,18 +1134,18 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1346,23 +1170,23 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
+      <c r="C15" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1384,25 +1208,25 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
+      <c r="C16" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -1422,11 +1246,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="2"/>
@@ -1453,23 +1277,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1491,24 +1317,28 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
@@ -1527,14 +1357,19 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
@@ -1558,18 +1393,18 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>39</v>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1594,18 +1429,18 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>39</v>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1630,11 +1465,9 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
@@ -1658,11 +1491,10 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
@@ -1686,11 +1518,10 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
@@ -1714,11 +1545,10 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
@@ -1742,11 +1572,10 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
@@ -1770,7 +1599,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1798,7 +1627,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1826,16 +1655,16 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1862,21 +1691,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1900,21 +1729,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1938,21 +1767,21 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1976,21 +1805,21 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2014,18 +1843,18 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2050,18 +1879,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -2086,18 +1915,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2122,21 +1951,21 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="2">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2161,256 +1990,264 @@
       <c r="Z38" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C34" type="list">
       <formula1>table</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C36" type="list">
       <formula1>ignore_stop</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C35" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C35" type="list">
       <formula1>existingRecordPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A30:A38 A1:A27" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A8 A10:A18 A21:A27 A30:A38" type="list">
+      <formula1>RuletypesWRules</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C33" type="list">
+      <formula1>'Drop-down Lists'!$E$1:$E$15</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9 A19:A20" type="list">
       <formula1>RuletypesWRules</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>'Drop-down Lists'!$E$1:$E$15</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="19:20 A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.625"/>
-    <col min="3" max="3" width="42.875"/>
-    <col min="4" max="4" width="8.625"/>
-    <col min="5" max="5" width="18.875"/>
-    <col min="6" max="26" width="8.625"/>
-    <col min="27" max="1025" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F8" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F9" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E10" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F10" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F11" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="E12" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F12" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="E13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\mapeamento separado\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4B5D7-5289-4B26-BD8F-A59674B23061}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Drop-down Lists" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Drop-down Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="existingRecordPolicy" vbProcedure="false">'Drop-down Lists'!$C$1:$C$13</definedName>
-    <definedName function="false" hidden="false" name="ignore_stop" vbProcedure="false">'Drop-down Lists'!$B$1:$B$2</definedName>
-    <definedName function="false" hidden="false" name="importer_type" vbProcedure="false">'Drop-down Lists'!$E$1:$E$3</definedName>
-    <definedName function="false" hidden="false" name="inputTypes" vbProcedure="false">'Drop-down Lists'!$E$1:$E$4</definedName>
-    <definedName function="false" hidden="false" name="Ruletypes" vbProcedure="false">'Drop-down Lists'!$A$1:$A$4</definedName>
-    <definedName function="false" hidden="false" name="RuletypesWRules" vbProcedure="false">'Drop-down Lists'!$A$1:$A$6</definedName>
-    <definedName function="false" hidden="false" name="table" vbProcedure="false">'Drop-down Lists'!$F$1:$F$16</definedName>
-    <definedName function="false" hidden="false" name="YES_NO" vbProcedure="false">'Drop-down Lists'!$D$1:$D$2</definedName>
+    <definedName name="existingRecordPolicy">'Drop-down Lists'!$C$1:$C$13</definedName>
+    <definedName name="ignore_stop">'Drop-down Lists'!$B$1:$B$2</definedName>
+    <definedName name="importer_type">'Drop-down Lists'!$E$1:$E$3</definedName>
+    <definedName name="inputTypes">'Drop-down Lists'!$E$1:$E$4</definedName>
+    <definedName name="Ruletypes">'Drop-down Lists'!$A$1:$A$4</definedName>
+    <definedName name="RuletypesWRules">'Drop-down Lists'!$A$1:$A$6</definedName>
+    <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
+    <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,95 +38,92 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
   <si>
-    <t xml:space="preserve">Rule type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA table.element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinery parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replacement values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.objectProductionDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placeSplitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>Rule type</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CA table.element</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Refinery parameters</t>
+  </si>
+  <si>
+    <t>Original values</t>
+  </si>
+  <si>
+    <t>Replacement values</t>
+  </si>
+  <si>
+    <t>Source description</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>ca_objects.idno</t>
+  </si>
+  <si>
+    <t>ca_objects.preferred_labels</t>
+  </si>
+  <si>
+    <t>ca_objects.objectProductionDate</t>
+  </si>
+  <si>
+    <t>ca_places</t>
+  </si>
+  <si>
+    <t>placeSplitter</t>
+  </si>
+  <si>
+    <t>{
     "relationshipType": "created",
     "placeType": "city"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Não encontrei o elemento do local de criação. Revisar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.materiaux_tech_c.materiaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.work_dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_storage_locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storageLocationSplitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>Não encontrei o elemento do local de criação. Revisar.</t>
+  </si>
+  <si>
+    <t>ca_objects.work_dimensions</t>
+  </si>
+  <si>
+    <t>ca_objects.date_ref_acteAcquisition.date_acteAquisition_c.date_acteAcquisition</t>
+  </si>
+  <si>
+    <t>aquis</t>
+  </si>
+  <si>
+    <t>ca_objects.date_ref_acteAcquisition.ref_acteAcquisition_c.ref_acteAcquisition</t>
+  </si>
+  <si>
+    <t>ca_storage_locations</t>
+  </si>
+  <si>
+    <t>storageLocationSplitter</t>
+  </si>
+  <si>
+    <t>{
     "relationshipType": "related"}</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_objects.constatEtat.etat_global</t>
+    <t>ca_objects.constatEtat.etat_global</t>
   </si>
   <si>
     <r>
@@ -144,21 +146,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ruim
+      <t>Ruim
 "?"</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">bon
+    <t>bon
 a_traiter
 mauvais
 etatglobal_nonrenseigne</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_entities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>ca_entities</t>
+  </si>
+  <si>
+    <t>{
    "applyRegularExpressions": [
  {
  "match": "(^[ A-Za-z,ãÃáÁàÀêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚùÙûÛçÇºª\\']+).+", 
@@ -168,22 +170,22 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">entitySplitter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>entitySplitter</t>
+  </si>
+  <si>
+    <t>{
     "relationshipType": "creation_auteur",
     "entityType": "ind"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">ca_objects.inscription_c.inscription_info_c.inscription_emplacement_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c
+    <t>ca_objects.inscription_c.inscription_info_c.inscription_emplacement_c</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>c
 cd
 ce
 cid
@@ -211,7 +213,7 @@
 vece</t>
   </si>
   <si>
-    <t xml:space="preserve">centro
+    <t>centro
 centro à direita
 centro à esquerda
 canto inferior direito
@@ -239,257 +241,257 @@
 verso em cima à esquerda</t>
   </si>
   <si>
-    <t xml:space="preserve">Constant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.inscription_c.inscription_type_c.inscription_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.dimensions.dimensions_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects.dimensions.dimensions_height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importação Desenho Arquitetonico MDJVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human readable name of the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbitrary text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapeamento_Desenho_Arquitetonico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alphanumeric code of the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbitrary, no special characters or spaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputFormats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets the table for the imported data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponds to CollectiveAccess Basic Tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existingRecordPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determines how existing records are checked for and handled for the mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artvis_desarq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the target record's type_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numInitialRowsToSkip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_lots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMPDSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_idno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inmagic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_occurrences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollectiveAccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMPXML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_movements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorldCat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_lot_events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pastperfectxml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge_on_idno_and_preferred_labels_with_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabDelimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_set_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overwrite_on_idno_and_preferred_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSVDelimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_object_representations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_list_items</t>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>ca_objects.inscription_c.inscription_type_c.inscription_type</t>
+  </si>
+  <si>
+    <t>ca_objects.dimensions.dimensions_length</t>
+  </si>
+  <si>
+    <t>dim1</t>
+  </si>
+  <si>
+    <t>ca_objects.dimensions.dimensions_height</t>
+  </si>
+  <si>
+    <t>Setting name</t>
+  </si>
+  <si>
+    <t>Setting value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Importação Desenho Arquitetonico MDJVI</t>
+  </si>
+  <si>
+    <t>Human readable name of the mapping</t>
+  </si>
+  <si>
+    <t>Arbitrary text</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Mapeamento_Desenho_Arquitetonico</t>
+  </si>
+  <si>
+    <t>Alphanumeric code of the mapping</t>
+  </si>
+  <si>
+    <t>Arbitrary, no special characters or spaces</t>
+  </si>
+  <si>
+    <t>inputFormats</t>
+  </si>
+  <si>
+    <t>XLSX</t>
+  </si>
+  <si>
+    <t>Sets types of source (input) data that can be handled by this import mapping. Values are format codes defined by the various DataReader plugins. You can specify multiple formats by specifying their format codes in a semicolon delimited list.</t>
+  </si>
+  <si>
+    <t>file type</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>ca_objects</t>
+  </si>
+  <si>
+    <t>Sets the table for the imported data</t>
+  </si>
+  <si>
+    <t>Corresponds to CollectiveAccess Basic Tables</t>
+  </si>
+  <si>
+    <t>existingRecordPolicy</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Determines how existing records are checked for and handled for the mapping</t>
+  </si>
+  <si>
+    <t>errorPolicy</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>Determines how errors are handled for the import. "Stop" will halt the entire import on any error.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>artvis_desarq</t>
+  </si>
+  <si>
+    <t>Set the target record's type_id</t>
+  </si>
+  <si>
+    <t>numInitialRowsToSkip</t>
+  </si>
+  <si>
+    <t>The number of rows at the top of the data set to skip. Use this setting to skip over column headers in spreadsheets and similar data.</t>
+  </si>
+  <si>
+    <t>If this is not set, the first row of your data set (the headers) will be imported as a record.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ca_object_lots</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>skip_on_idno</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>merge_on_idno</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>merge_on_idno_with_replace</t>
+  </si>
+  <si>
+    <t>FMPDSO</t>
+  </si>
+  <si>
+    <t>ca_collections</t>
+  </si>
+  <si>
+    <t>overwrite_on_idno</t>
+  </si>
+  <si>
+    <t>Inmagic</t>
+  </si>
+  <si>
+    <t>ca_occurrences</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>skip_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>ca_loans</t>
+  </si>
+  <si>
+    <t>merge_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>CollectiveAccess</t>
+  </si>
+  <si>
+    <t>merge_on_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t>FMPXML</t>
+  </si>
+  <si>
+    <t>ca_movements</t>
+  </si>
+  <si>
+    <t>overwrite_on_preferred_labels</t>
+  </si>
+  <si>
+    <t>TEI</t>
+  </si>
+  <si>
+    <t>ca_object_events</t>
+  </si>
+  <si>
+    <t>skip_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>WorldCat</t>
+  </si>
+  <si>
+    <t>ca_object_lot_events</t>
+  </si>
+  <si>
+    <t>merge_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>pastperfectxml</t>
+  </si>
+  <si>
+    <t>ca_sets</t>
+  </si>
+  <si>
+    <t>merge_on_idno_and_preferred_labels_with_replace</t>
+  </si>
+  <si>
+    <t>TabDelimited</t>
+  </si>
+  <si>
+    <t>ca_set_items</t>
+  </si>
+  <si>
+    <t>overwrite_on_idno_and_preferred_labels</t>
+  </si>
+  <si>
+    <t>CSVDelimited</t>
+  </si>
+  <si>
+    <t>ca_object_representations</t>
+  </si>
+  <si>
+    <t>ULAN</t>
+  </si>
+  <si>
+    <t>RDF</t>
+  </si>
+  <si>
+    <t>ca_lists</t>
+  </si>
+  <si>
+    <t>ca_list_items</t>
+  </si>
+  <si>
+    <t>ca_objects.materiaux_tech_c.techniques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -498,22 +500,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -527,7 +514,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -542,7 +529,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -558,7 +545,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -566,125 +553,377 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="19:20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="74.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="43.125" customWidth="1"/>
+    <col min="11" max="11" width="74.25" customWidth="1"/>
+    <col min="12" max="26" width="12" customWidth="1"/>
+    <col min="27" max="1025" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,11 +973,11 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -765,11 +1004,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -797,11 +1036,11 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
@@ -829,11 +1068,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
@@ -861,11 +1100,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -894,11 +1133,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -928,11 +1167,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -968,15 +1207,15 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>20</v>
+      <c r="C9" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -1002,11 +1241,11 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
@@ -1033,11 +1272,11 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>10</v>
       </c>
       <c r="D11" s="2"/>
@@ -1064,15 +1303,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>21</v>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -1098,18 +1337,18 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1134,18 +1373,18 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1170,23 +1409,23 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>25</v>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1208,25 +1447,25 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>28</v>
+      <c r="C16" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -1246,11 +1485,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>16</v>
       </c>
       <c r="D17" s="2"/>
@@ -1277,25 +1516,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>31</v>
+      <c r="C18" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1317,27 +1556,27 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
@@ -1357,18 +1596,18 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1393,18 +1632,18 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1429,18 +1668,18 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1465,7 +1704,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
@@ -1491,7 +1730,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="2"/>
@@ -1518,7 +1757,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="2"/>
@@ -1545,7 +1784,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
@@ -1572,7 +1811,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="2"/>
@@ -1599,7 +1838,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1627,7 +1866,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1655,16 +1894,16 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1691,21 +1930,21 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1729,21 +1968,21 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1767,21 +2006,21 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1805,21 +2044,21 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1843,18 +2082,18 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" t="s">
         <v>66</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1879,18 +2118,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
         <v>69</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -1915,18 +2154,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1951,21 +2190,21 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1990,264 +2229,262 @@
       <c r="Z38" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C34" type="list">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>table</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C36" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>ignore_stop</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C35" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C35" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>existingRecordPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:A8 A10:A18 A21:A27 A30:A38" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A8 A10:A18 A21:A27 A30:A38" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>RuletypesWRules</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C33" type="list">
-      <formula1>'Drop-down Lists'!$E$1:$E$15</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9 A19:A20" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A9 A19:A20" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>RuletypesWRules</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>'Drop-down Lists'!$E$1:$E$15</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="19:20 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="A19:XFD20 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.25"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="26" width="8.625" customWidth="1"/>
+    <col min="27" max="1025" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="0" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="0" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="E7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="E8" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="0" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="E9" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="0" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="E10" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="0" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="E11" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="0" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="0" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="E13" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="0" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
+      <c r="F15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="0" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F16" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\mapeamento separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\mdjvi-master\mapeamento separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4B5D7-5289-4B26-BD8F-A59674B23061}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685CBC6-DCF4-4074-803B-FF383A9984AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,16 +160,6 @@
     <t>ca_entities</t>
   </si>
   <si>
-    <t>{
-   "applyRegularExpressions": [
- {
- "match": "(^[ A-Za-z,ãÃáÁàÀêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚùÙûÛçÇºª\\']+).+", 
-"replaceWith": "\\1" 
-}
-]
-}</t>
-  </si>
-  <si>
     <t>entitySplitter</t>
   </si>
   <si>
@@ -485,6 +475,16 @@
   </si>
   <si>
     <t>ca_objects.materiaux_tech_c.techniques</t>
+  </si>
+  <si>
+    <t>{
+   "applyRegularExpressions": [
+ {
+ "match": "(^[ A-Za-z,ãÃáÁàÀâÂêÊéÉèÈíÍìÌôÔõÕóÓòÒúÚüÜùÙûÛçÇºª\\.']+)", 
+"replaceWith": "\\1" 
+}
+]
+}</t>
   </si>
 </sst>
 </file>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -1528,13 +1528,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1564,19 +1564,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1640,10 +1640,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1676,10 +1676,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1897,13 +1897,13 @@
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1932,19 +1932,19 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1970,19 +1970,19 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2008,19 +2008,19 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" t="s">
         <v>57</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2046,19 +2046,19 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2120,16 +2120,16 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
         <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -2156,16 +2156,16 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2192,19 +2192,19 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2294,50 +2294,50 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2362,35 +2362,35 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
         <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -2398,73 +2398,73 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
         <v>97</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
         <v>103</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
         <v>109</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
         <v>112</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -2472,15 +2472,15 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
+++ b/mapeamento separado/CA mapeamento importação Acervo_Desenho_arquitetonico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\mdjvi-master\mapeamento separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\mdjvi-master\mapeamento separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685CBC6-DCF4-4074-803B-FF383A9984AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D557967-9976-478D-A546-FB8FD1FC88CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
